--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t xml:space="preserve">database</t>
   </si>
@@ -62,25 +62,7 @@
     <t xml:space="preserve">username</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Varchar(30)        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">Varchar(30)        not null</t>
   </si>
   <si>
     <t xml:space="preserve">账户名</t>
@@ -89,25 +71,7 @@
     <t xml:space="preserve">pwd</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Varchar(50)        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">Varchar(50)        not null</t>
   </si>
   <si>
     <t xml:space="preserve">密码</t>
@@ -116,25 +80,7 @@
     <t xml:space="preserve">user_type</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Char(1)                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">Char(1)                 not null</t>
   </si>
   <si>
     <t xml:space="preserve">用户类别，关联user_type表</t>
@@ -185,31 +131,10 @@
     <t xml:space="preserve">usertype</t>
   </si>
   <si>
-    <t xml:space="preserve">Char(1)                 not null</t>
-  </si>
-  <si>
     <t xml:space="preserve">类别ID</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Varchar(20)        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">Varchar(20)        not null</t>
   </si>
   <si>
     <t xml:space="preserve">类别描述</t>
@@ -233,25 +158,7 @@
     <t xml:space="preserve">login_time</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">datetime       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">datetime       not null</t>
   </si>
   <si>
     <t xml:space="preserve">账户登录时间</t>
@@ -260,97 +167,85 @@
     <t xml:space="preserve">logout_time</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">datetime             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
+    <t xml:space="preserve">datetime             not null</t>
   </si>
   <si>
     <t xml:space="preserve">账户登出时间</t>
   </si>
   <si>
-    <t xml:space="preserve">user_comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户意见表</t>
+    <t xml:space="preserve">user_life_circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动态资料表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(2000)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">生活圈内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发表时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_circle_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动态评论资料表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varchar(10)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">动态id</t>
   </si>
   <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Varchar(500)      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">not null</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">账户意见内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">意见提交时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reply</t>
-  </si>
-  <si>
     <t xml:space="preserve">Varchar(500)</t>
   </si>
   <si>
-    <t xml:space="preserve">系统账户回复消息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回复时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_life_circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户生活圈资料表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varchar(2000)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">生活圈内容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发表时间</t>
+    <t xml:space="preserve">评论内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inittime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评论时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_sign_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户签到表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiss_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">飞吻个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiss_day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">签到日期</t>
   </si>
 </sst>
 </file>
@@ -360,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,12 +284,6 @@
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -458,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,11 +372,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,12 +380,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -608,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,13 +559,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -762,18 +647,18 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -789,13 +674,13 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -804,10 +689,10 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,19 +729,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,63 +756,63 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>42</v>
+      <c r="C27" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" s="8" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" s="10" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -942,14 +827,14 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>42</v>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,127 +842,197 @@
         <v>9</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" s="10" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+      <c r="B47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1088,13 +1043,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C4"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
